--- a/lineups/FS - TalynM.Tx.xlsx
+++ b/lineups/FS - TalynM.Tx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Temp</t>
   </si>
@@ -65,9 +65,6 @@
     <t>PacketLengthPayload</t>
   </si>
   <si>
-    <t>tx_gain_row</t>
-  </si>
-  <si>
     <t>Dac_fssel_val</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>Note! 1</t>
-  </si>
-  <si>
-    <t>Note! 0</t>
   </si>
 </sst>
 </file>
@@ -461,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,11 +560,8 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -581,25 +569,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -608,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -626,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -647,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -673,11 +661,8 @@
       <c r="AG2">
         <v>1</v>
       </c>
-      <c r="AH2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -685,25 +670,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -712,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -730,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -751,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -777,11 +762,8 @@
       <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AH3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>-40</v>
       </c>
@@ -789,25 +771,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -816,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -834,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -855,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -881,11 +863,8 @@
       <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AH4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>-40</v>
       </c>
@@ -893,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -920,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -938,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -959,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -985,37 +964,34 @@
       <c r="AG5">
         <v>1</v>
       </c>
-      <c r="AH5" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:33">
       <c r="A6">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1024,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1042,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1063,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1089,37 +1065,34 @@
       <c r="AG6">
         <v>1</v>
       </c>
-      <c r="AH6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:33">
       <c r="A7">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1128,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1146,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1167,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1193,11 +1166,8 @@
       <c r="AG7">
         <v>1</v>
       </c>
-      <c r="AH7" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>-30</v>
       </c>
@@ -1205,25 +1175,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1232,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1250,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1271,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1297,11 +1267,8 @@
       <c r="AG8">
         <v>1</v>
       </c>
-      <c r="AH8" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>-30</v>
       </c>
@@ -1309,25 +1276,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1336,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1354,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1375,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1401,22 +1368,19 @@
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AH9" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:33">
       <c r="A10">
-        <v>100</v>
+        <v>-30</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1425,816 +1389,388 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11">
+        <v>-30</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="P10">
-        <v>13</v>
-      </c>
-      <c r="Q10">
-        <v>14</v>
-      </c>
-      <c r="R10">
-        <v>15</v>
-      </c>
-      <c r="S10">
-        <v>16</v>
-      </c>
-      <c r="T10">
-        <v>17</v>
-      </c>
-      <c r="U10">
-        <v>18</v>
-      </c>
-      <c r="V10">
-        <v>19</v>
-      </c>
-      <c r="W10">
-        <v>20</v>
-      </c>
-      <c r="X10">
-        <v>21</v>
-      </c>
-      <c r="Y10">
-        <v>22</v>
-      </c>
-      <c r="Z10">
-        <v>23</v>
-      </c>
-      <c r="AA10">
-        <v>24</v>
-      </c>
-      <c r="AB10">
-        <v>25</v>
-      </c>
-      <c r="AC10">
-        <v>26</v>
-      </c>
-      <c r="AD10">
-        <v>27</v>
-      </c>
-      <c r="AE10">
-        <v>28</v>
-      </c>
-      <c r="AF10">
-        <v>29</v>
-      </c>
-      <c r="AG10">
-        <v>30</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>35</v>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+    <row r="12" spans="1:33">
+      <c r="A12">
+        <v>-30</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>12</v>
       </c>
-      <c r="P11">
-        <v>13</v>
-      </c>
-      <c r="Q11">
-        <v>14</v>
-      </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="S11">
-        <v>16</v>
-      </c>
-      <c r="T11">
-        <v>17</v>
-      </c>
-      <c r="U11">
-        <v>18</v>
-      </c>
-      <c r="V11">
-        <v>19</v>
-      </c>
-      <c r="W11">
-        <v>20</v>
-      </c>
-      <c r="X11">
-        <v>21</v>
-      </c>
-      <c r="Y11">
-        <v>22</v>
-      </c>
-      <c r="Z11">
-        <v>23</v>
-      </c>
-      <c r="AA11">
-        <v>24</v>
-      </c>
-      <c r="AB11">
-        <v>25</v>
-      </c>
-      <c r="AC11">
-        <v>26</v>
-      </c>
-      <c r="AD11">
-        <v>27</v>
-      </c>
-      <c r="AE11">
-        <v>28</v>
-      </c>
-      <c r="AF11">
-        <v>29</v>
-      </c>
-      <c r="AG11">
-        <v>30</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>35</v>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
+    <row r="13" spans="1:33">
+      <c r="A13">
+        <v>-30</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>12</v>
       </c>
-      <c r="P12">
-        <v>13</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
-      </c>
-      <c r="R12">
-        <v>15</v>
-      </c>
-      <c r="S12">
-        <v>16</v>
-      </c>
-      <c r="T12">
-        <v>17</v>
-      </c>
-      <c r="U12">
-        <v>18</v>
-      </c>
-      <c r="V12">
-        <v>19</v>
-      </c>
-      <c r="W12">
-        <v>20</v>
-      </c>
-      <c r="X12">
-        <v>21</v>
-      </c>
-      <c r="Y12">
-        <v>22</v>
-      </c>
-      <c r="Z12">
-        <v>23</v>
-      </c>
-      <c r="AA12">
-        <v>24</v>
-      </c>
-      <c r="AB12">
-        <v>25</v>
-      </c>
-      <c r="AC12">
-        <v>26</v>
-      </c>
-      <c r="AD12">
-        <v>27</v>
-      </c>
-      <c r="AE12">
-        <v>28</v>
-      </c>
-      <c r="AF12">
-        <v>29</v>
-      </c>
-      <c r="AG12">
-        <v>30</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>7</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
       <c r="O13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>30</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14">
-        <v>105</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
-      </c>
-      <c r="R14">
-        <v>15</v>
-      </c>
-      <c r="S14">
-        <v>16</v>
-      </c>
-      <c r="T14">
-        <v>17</v>
-      </c>
-      <c r="U14">
-        <v>18</v>
-      </c>
-      <c r="V14">
-        <v>19</v>
-      </c>
-      <c r="W14">
-        <v>20</v>
-      </c>
-      <c r="X14">
-        <v>21</v>
-      </c>
-      <c r="Y14">
-        <v>22</v>
-      </c>
-      <c r="Z14">
-        <v>23</v>
-      </c>
-      <c r="AA14">
-        <v>24</v>
-      </c>
-      <c r="AB14">
-        <v>25</v>
-      </c>
-      <c r="AC14">
-        <v>26</v>
-      </c>
-      <c r="AD14">
-        <v>27</v>
-      </c>
-      <c r="AE14">
-        <v>28</v>
-      </c>
-      <c r="AF14">
-        <v>29</v>
-      </c>
-      <c r="AG14">
-        <v>30</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15">
-        <v>105</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <v>12</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
-        <v>14</v>
-      </c>
-      <c r="R15">
-        <v>15</v>
-      </c>
-      <c r="S15">
-        <v>16</v>
-      </c>
-      <c r="T15">
-        <v>17</v>
-      </c>
-      <c r="U15">
-        <v>18</v>
-      </c>
-      <c r="V15">
-        <v>19</v>
-      </c>
-      <c r="W15">
-        <v>20</v>
-      </c>
-      <c r="X15">
-        <v>21</v>
-      </c>
-      <c r="Y15">
-        <v>22</v>
-      </c>
-      <c r="Z15">
-        <v>23</v>
-      </c>
-      <c r="AA15">
-        <v>24</v>
-      </c>
-      <c r="AB15">
-        <v>25</v>
-      </c>
-      <c r="AC15">
-        <v>26</v>
-      </c>
-      <c r="AD15">
-        <v>27</v>
-      </c>
-      <c r="AE15">
-        <v>28</v>
-      </c>
-      <c r="AF15">
-        <v>29</v>
-      </c>
-      <c r="AG15">
-        <v>30</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16">
-        <v>105</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>11</v>
-      </c>
-      <c r="O16">
-        <v>12</v>
-      </c>
-      <c r="P16">
-        <v>13</v>
-      </c>
-      <c r="Q16">
-        <v>14</v>
-      </c>
-      <c r="R16">
-        <v>15</v>
-      </c>
-      <c r="S16">
-        <v>16</v>
-      </c>
-      <c r="T16">
-        <v>17</v>
-      </c>
-      <c r="U16">
-        <v>18</v>
-      </c>
-      <c r="V16">
-        <v>19</v>
-      </c>
-      <c r="W16">
-        <v>20</v>
-      </c>
-      <c r="X16">
-        <v>21</v>
-      </c>
-      <c r="Y16">
-        <v>22</v>
-      </c>
-      <c r="Z16">
-        <v>23</v>
-      </c>
-      <c r="AA16">
-        <v>24</v>
-      </c>
-      <c r="AB16">
-        <v>25</v>
-      </c>
-      <c r="AC16">
-        <v>26</v>
-      </c>
-      <c r="AD16">
-        <v>27</v>
-      </c>
-      <c r="AE16">
-        <v>28</v>
-      </c>
-      <c r="AF16">
-        <v>29</v>
-      </c>
-      <c r="AG16">
-        <v>30</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17">
-        <v>105</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>11</v>
-      </c>
-      <c r="O17">
-        <v>12</v>
-      </c>
-      <c r="P17">
-        <v>13</v>
-      </c>
-      <c r="Q17">
-        <v>14</v>
-      </c>
-      <c r="R17">
-        <v>15</v>
-      </c>
-      <c r="S17">
-        <v>16</v>
-      </c>
-      <c r="T17">
-        <v>17</v>
-      </c>
-      <c r="U17">
-        <v>18</v>
-      </c>
-      <c r="V17">
-        <v>19</v>
-      </c>
-      <c r="W17">
-        <v>20</v>
-      </c>
-      <c r="X17">
-        <v>21</v>
-      </c>
-      <c r="Y17">
-        <v>22</v>
-      </c>
-      <c r="Z17">
-        <v>23</v>
-      </c>
-      <c r="AA17">
-        <v>24</v>
-      </c>
-      <c r="AB17">
-        <v>25</v>
-      </c>
-      <c r="AC17">
-        <v>26</v>
-      </c>
-      <c r="AD17">
-        <v>27</v>
-      </c>
-      <c r="AE17">
-        <v>28</v>
-      </c>
-      <c r="AF17">
-        <v>29</v>
-      </c>
-      <c r="AG17">
-        <v>30</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lineups/FS - TalynM.Tx.xlsx
+++ b/lineups/FS - TalynM.Tx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Temp</t>
   </si>
@@ -65,6 +65,9 @@
     <t>PacketLengthPayload</t>
   </si>
   <si>
+    <t>tx_gain_row</t>
+  </si>
+  <si>
     <t>Dac_fssel_val</t>
   </si>
   <si>
@@ -107,13 +110,16 @@
     <t>iftx_stg2_val</t>
   </si>
   <si>
+    <t>if_mux_gain_val</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>iftx_stg3_val</t>
   </si>
   <si>
-    <t>if_mux_gain_val</t>
-  </si>
-  <si>
-    <t>note</t>
+    <t>Note!!</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +566,11 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -569,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -587,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -596,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -611,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -658,11 +667,14 @@
       <c r="AF2">
         <v>1</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -670,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -688,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -697,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -759,11 +771,14 @@
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>-40</v>
       </c>
@@ -771,13 +786,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -789,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -804,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -813,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -860,11 +875,14 @@
       <c r="AF4">
         <v>1</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>-40</v>
       </c>
@@ -872,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -890,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -899,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -961,25 +979,28 @@
       <c r="AF5">
         <v>1</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -991,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1000,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1015,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1062,25 +1083,28 @@
       <c r="AF6">
         <v>1</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1092,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1101,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1163,25 +1187,28 @@
       <c r="AF7">
         <v>1</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1193,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1208,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1217,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1264,25 +1291,28 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1294,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1303,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1365,411 +1395,10 @@
       <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10">
-        <v>-30</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11">
-        <v>-30</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12">
-        <v>-30</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13">
-        <v>-30</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13">
+      <c r="AG9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9">
         <v>1</v>
       </c>
     </row>
